--- a/Code/Results/Cases/Case_5_187/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_187/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9983401476145981</v>
+        <v>1.030359391618642</v>
       </c>
       <c r="D2">
-        <v>1.015738281634587</v>
+        <v>1.032743152920536</v>
       </c>
       <c r="E2">
-        <v>1.013161840369461</v>
+        <v>1.039297547903983</v>
       </c>
       <c r="F2">
-        <v>1.019896575401677</v>
+        <v>1.048419981340831</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042026853055791</v>
+        <v>1.032490467137752</v>
       </c>
       <c r="J2">
-        <v>1.020570618177278</v>
+        <v>1.035501071422004</v>
       </c>
       <c r="K2">
-        <v>1.02698262647332</v>
+        <v>1.035547504045563</v>
       </c>
       <c r="L2">
-        <v>1.024440805354156</v>
+        <v>1.04208313535606</v>
       </c>
       <c r="M2">
-        <v>1.031085507470802</v>
+        <v>1.05117987703966</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002756126879678</v>
+        <v>1.031302376646201</v>
       </c>
       <c r="D3">
-        <v>1.018777769535883</v>
+        <v>1.033406807290033</v>
       </c>
       <c r="E3">
-        <v>1.016866122588025</v>
+        <v>1.040142136546105</v>
       </c>
       <c r="F3">
-        <v>1.024020109069691</v>
+        <v>1.049364256358673</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042951727324485</v>
+        <v>1.032627378061937</v>
       </c>
       <c r="J3">
-        <v>1.023171938047899</v>
+        <v>1.03608551039711</v>
       </c>
       <c r="K3">
-        <v>1.029175893269661</v>
+        <v>1.036020382397979</v>
       </c>
       <c r="L3">
-        <v>1.027287652315195</v>
+        <v>1.042737823025312</v>
       </c>
       <c r="M3">
-        <v>1.034354602934972</v>
+        <v>1.051935851555375</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005557603569755</v>
+        <v>1.031913107913507</v>
       </c>
       <c r="D4">
-        <v>1.020708172628888</v>
+        <v>1.033836476435535</v>
       </c>
       <c r="E4">
-        <v>1.019222104570891</v>
+        <v>1.04068951334721</v>
       </c>
       <c r="F4">
-        <v>1.026642265606885</v>
+        <v>1.049976232178579</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043528175447175</v>
+        <v>1.032714746184533</v>
       </c>
       <c r="J4">
-        <v>1.024820205821241</v>
+        <v>1.036463630344673</v>
       </c>
       <c r="K4">
-        <v>1.030562931021252</v>
+        <v>1.036325924803669</v>
       </c>
       <c r="L4">
-        <v>1.029093941711331</v>
+        <v>1.043161676308438</v>
       </c>
       <c r="M4">
-        <v>1.036429433587619</v>
+        <v>1.052425358751945</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006722410979527</v>
+        <v>1.03216999158909</v>
       </c>
       <c r="D5">
-        <v>1.021511261972931</v>
+        <v>1.03401716539184</v>
       </c>
       <c r="E5">
-        <v>1.020203080894768</v>
+        <v>1.040919837749432</v>
       </c>
       <c r="F5">
-        <v>1.0277339643282</v>
+        <v>1.050233736777928</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043765343072531</v>
+        <v>1.03275118253241</v>
       </c>
       <c r="J5">
-        <v>1.025505013918444</v>
+        <v>1.036622578676288</v>
       </c>
       <c r="K5">
-        <v>1.03113854596926</v>
+        <v>1.036454268057021</v>
       </c>
       <c r="L5">
-        <v>1.029844992348278</v>
+        <v>1.043339917317602</v>
       </c>
       <c r="M5">
-        <v>1.0372922955687</v>
+        <v>1.052631227955123</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00691724189537</v>
+        <v>1.032213131212758</v>
       </c>
       <c r="D6">
-        <v>1.02164561562534</v>
+        <v>1.03404750710561</v>
       </c>
       <c r="E6">
-        <v>1.02036724439588</v>
+        <v>1.040958522338286</v>
       </c>
       <c r="F6">
-        <v>1.027916650855913</v>
+        <v>1.050276986375632</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043804864064286</v>
+        <v>1.032757283145095</v>
       </c>
       <c r="J6">
-        <v>1.025619526768465</v>
+        <v>1.036649265990513</v>
       </c>
       <c r="K6">
-        <v>1.031234760385636</v>
+        <v>1.03647581116144</v>
       </c>
       <c r="L6">
-        <v>1.029970616881667</v>
+        <v>1.043369847846927</v>
       </c>
       <c r="M6">
-        <v>1.037436631245197</v>
+        <v>1.052665798976111</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005573218005524</v>
+        <v>1.031916539887431</v>
       </c>
       <c r="D7">
-        <v>1.02071893643566</v>
+        <v>1.033838890591875</v>
       </c>
       <c r="E7">
-        <v>1.019235249252504</v>
+        <v>1.040692590140813</v>
       </c>
       <c r="F7">
-        <v>1.026656894333837</v>
+        <v>1.049979672065882</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04353136468564</v>
+        <v>1.03271523420162</v>
       </c>
       <c r="J7">
-        <v>1.024829387863323</v>
+        <v>1.036465754273612</v>
       </c>
       <c r="K7">
-        <v>1.030570651608649</v>
+        <v>1.036327640153402</v>
       </c>
       <c r="L7">
-        <v>1.02910400961693</v>
+        <v>1.043164057766372</v>
       </c>
       <c r="M7">
-        <v>1.036440999730467</v>
+        <v>1.052428109272102</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9998444206589394</v>
+        <v>1.03067796186836</v>
       </c>
       <c r="D8">
-        <v>1.016773171191635</v>
+        <v>1.03296738734446</v>
       </c>
       <c r="E8">
-        <v>1.014422394463858</v>
+        <v>1.039582799281087</v>
       </c>
       <c r="F8">
-        <v>1.02129990360881</v>
+        <v>1.04873890244646</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042344035651733</v>
+        <v>1.03253698959124</v>
       </c>
       <c r="J8">
-        <v>1.021457136904771</v>
+        <v>1.035698595269883</v>
       </c>
       <c r="K8">
-        <v>1.027730633146938</v>
+        <v>1.035707406269241</v>
       </c>
       <c r="L8">
-        <v>1.025410485825361</v>
+        <v>1.042304342508497</v>
       </c>
       <c r="M8">
-        <v>1.032198881255314</v>
+        <v>1.05143529075626</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.989299008895085</v>
+        <v>1.028499741721878</v>
       </c>
       <c r="D9">
-        <v>1.009530016010763</v>
+        <v>1.031433594701899</v>
       </c>
       <c r="E9">
-        <v>1.00561278305308</v>
+        <v>1.037633943946112</v>
       </c>
       <c r="F9">
-        <v>1.011490157622239</v>
+        <v>1.046559977135118</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040078625542982</v>
+        <v>1.032213562699357</v>
       </c>
       <c r="J9">
-        <v>1.015235389443032</v>
+        <v>1.034346417672459</v>
       </c>
       <c r="K9">
-        <v>1.022470344699653</v>
+        <v>1.034611140992192</v>
       </c>
       <c r="L9">
-        <v>1.018615448440258</v>
+        <v>1.040791200785214</v>
       </c>
       <c r="M9">
-        <v>1.02439952567798</v>
+        <v>1.049688487388761</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.981933179522301</v>
+        <v>1.027050557283306</v>
       </c>
       <c r="D10">
-        <v>1.004488627579968</v>
+        <v>1.030412437789532</v>
       </c>
       <c r="E10">
-        <v>0.9994961532999119</v>
+        <v>1.036339322357501</v>
       </c>
       <c r="F10">
-        <v>1.004675794259428</v>
+        <v>1.045112469425325</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038445019827428</v>
+        <v>1.031991700558728</v>
       </c>
       <c r="J10">
-        <v>1.010882409050869</v>
+        <v>1.033444795627058</v>
       </c>
       <c r="K10">
-        <v>1.01877730866105</v>
+        <v>1.03387811957759</v>
       </c>
       <c r="L10">
-        <v>1.013874510817373</v>
+        <v>1.039783709011029</v>
       </c>
       <c r="M10">
-        <v>1.018961135894529</v>
+        <v>1.04852582306459</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9786562210801372</v>
+        <v>1.026423759925416</v>
       </c>
       <c r="D11">
-        <v>1.002251017473366</v>
+        <v>1.029970609555492</v>
       </c>
       <c r="E11">
-        <v>0.9967844044272788</v>
+        <v>1.035779849378668</v>
       </c>
       <c r="F11">
-        <v>1.001653798569023</v>
+        <v>1.044486912616342</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037706731921603</v>
+        <v>1.031894157753258</v>
       </c>
       <c r="J11">
-        <v>1.008944695518655</v>
+        <v>1.033054355811293</v>
       </c>
       <c r="K11">
-        <v>1.017130607390133</v>
+        <v>1.033560209932741</v>
       </c>
       <c r="L11">
-        <v>1.01176721802265</v>
+        <v>1.039347769260921</v>
       </c>
       <c r="M11">
-        <v>1.016544593918473</v>
+        <v>1.048022836310044</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9774251417943187</v>
+        <v>1.026191046999591</v>
       </c>
       <c r="D12">
-        <v>1.001411273666778</v>
+        <v>1.029806547368405</v>
       </c>
       <c r="E12">
-        <v>0.9957671487855763</v>
+        <v>1.035572203891665</v>
       </c>
       <c r="F12">
-        <v>1.000520012149021</v>
+        <v>1.044254738237868</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037427699570488</v>
+        <v>1.031857704943848</v>
       </c>
       <c r="J12">
-        <v>1.008216621169665</v>
+        <v>1.032909325355927</v>
       </c>
       <c r="K12">
-        <v>1.016511485754899</v>
+        <v>1.033442049081932</v>
       </c>
       <c r="L12">
-        <v>1.010975895347072</v>
+        <v>1.039185889651985</v>
       </c>
       <c r="M12">
-        <v>1.015637256323483</v>
+        <v>1.047836074184537</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9776898523511435</v>
+        <v>1.026240959830612</v>
       </c>
       <c r="D13">
-        <v>1.001591796986554</v>
+        <v>1.029841736865153</v>
       </c>
       <c r="E13">
-        <v>0.9959858140094069</v>
+        <v>1.035616736942511</v>
       </c>
       <c r="F13">
-        <v>1.000763733243527</v>
+        <v>1.044304532022972</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037487772708944</v>
+        <v>1.031865534190353</v>
       </c>
       <c r="J13">
-        <v>1.008373178558509</v>
+        <v>1.032940435033152</v>
       </c>
       <c r="K13">
-        <v>1.01664463244329</v>
+        <v>1.033467398365061</v>
       </c>
       <c r="L13">
-        <v>1.011146031770738</v>
+        <v>1.039220611195386</v>
       </c>
       <c r="M13">
-        <v>1.015832331157145</v>
+        <v>1.047876132126932</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9785547470107857</v>
+        <v>1.02640452160322</v>
       </c>
       <c r="D14">
-        <v>1.002181781649748</v>
+        <v>1.02995704704449</v>
       </c>
       <c r="E14">
-        <v>0.9967005245559851</v>
+        <v>1.035762681908959</v>
       </c>
       <c r="F14">
-        <v>1.001560312995506</v>
+        <v>1.044467717221912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037683765847094</v>
+        <v>1.031891149059266</v>
       </c>
       <c r="J14">
-        <v>1.008884684715945</v>
+        <v>1.03304236761871</v>
       </c>
       <c r="K14">
-        <v>1.017079584739522</v>
+        <v>1.033550444244969</v>
       </c>
       <c r="L14">
-        <v>1.011701984496916</v>
+        <v>1.039334387259834</v>
       </c>
       <c r="M14">
-        <v>1.016469794284407</v>
+        <v>1.048007397068404</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9790857766078316</v>
+        <v>1.026505311686885</v>
       </c>
       <c r="D15">
-        <v>1.002544139733178</v>
+        <v>1.030028100451952</v>
       </c>
       <c r="E15">
-        <v>0.997139542006951</v>
+        <v>1.035852625682242</v>
       </c>
       <c r="F15">
-        <v>1.002049599458584</v>
+        <v>1.044568285602512</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037803882975697</v>
+        <v>1.03190690194784</v>
       </c>
       <c r="J15">
-        <v>1.009198726037255</v>
+        <v>1.033105171185774</v>
       </c>
       <c r="K15">
-        <v>1.017346574503887</v>
+        <v>1.033601601638418</v>
       </c>
       <c r="L15">
-        <v>1.012043375876486</v>
+        <v>1.039404494819095</v>
       </c>
       <c r="M15">
-        <v>1.016861253286573</v>
+        <v>1.048088282984884</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.982148756115614</v>
+        <v>1.027092170783403</v>
       </c>
       <c r="D16">
-        <v>1.004635946608588</v>
+        <v>1.030441767753578</v>
       </c>
       <c r="E16">
-        <v>0.9996747498886753</v>
+        <v>1.036376476174609</v>
       </c>
       <c r="F16">
-        <v>1.004874803814618</v>
+        <v>1.045154011473182</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038493353155484</v>
+        <v>1.031998143122166</v>
       </c>
       <c r="J16">
-        <v>1.011009863313522</v>
+        <v>1.033470707254016</v>
       </c>
       <c r="K16">
-        <v>1.01888556581357</v>
+        <v>1.033899207610997</v>
       </c>
       <c r="L16">
-        <v>1.014013184289971</v>
+        <v>1.039812647541466</v>
       </c>
       <c r="M16">
-        <v>1.019120175721218</v>
+        <v>1.048559214323436</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9840461584837584</v>
+        <v>1.027460482525935</v>
       </c>
       <c r="D17">
-        <v>1.005933185187497</v>
+        <v>1.030701342257482</v>
       </c>
       <c r="E17">
-        <v>1.001247756662712</v>
+        <v>1.036705371046843</v>
       </c>
       <c r="F17">
-        <v>1.006627494262187</v>
+        <v>1.045521750443442</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038917454936596</v>
+        <v>1.032054981771676</v>
       </c>
       <c r="J17">
-        <v>1.012131532111407</v>
+        <v>1.033699990647539</v>
       </c>
       <c r="K17">
-        <v>1.019837977823384</v>
+        <v>1.034085753100488</v>
       </c>
       <c r="L17">
-        <v>1.015233943498414</v>
+        <v>1.040068754974444</v>
       </c>
       <c r="M17">
-        <v>1.020520308876521</v>
+        <v>1.04885473969818</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.985144489613916</v>
+        <v>1.027675380881922</v>
       </c>
       <c r="D18">
-        <v>1.006684596254685</v>
+        <v>1.030852780325689</v>
       </c>
       <c r="E18">
-        <v>1.002159201346722</v>
+        <v>1.036897316547985</v>
       </c>
       <c r="F18">
-        <v>1.007642966611752</v>
+        <v>1.045736364324057</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039161853301985</v>
+        <v>1.032087992438651</v>
       </c>
       <c r="J18">
-        <v>1.012780710939986</v>
+        <v>1.033833724662619</v>
       </c>
       <c r="K18">
-        <v>1.020388933888422</v>
+        <v>1.034194512984862</v>
       </c>
       <c r="L18">
-        <v>1.015940767957834</v>
+        <v>1.040218168022834</v>
       </c>
       <c r="M18">
-        <v>1.021331063859003</v>
+        <v>1.049027158424445</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9855175899812052</v>
+        <v>1.027748667230739</v>
       </c>
       <c r="D19">
-        <v>1.00693992942812</v>
+        <v>1.03090442228628</v>
       </c>
       <c r="E19">
-        <v>1.002468966461345</v>
+        <v>1.036962783056365</v>
       </c>
       <c r="F19">
-        <v>1.007988072451753</v>
+        <v>1.045809562075544</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039244687034571</v>
+        <v>1.032099224060653</v>
       </c>
       <c r="J19">
-        <v>1.01300121510156</v>
+        <v>1.033879323947618</v>
       </c>
       <c r="K19">
-        <v>1.020576029738204</v>
+        <v>1.03423158896129</v>
       </c>
       <c r="L19">
-        <v>1.016180902576098</v>
+        <v>1.040269119051178</v>
       </c>
       <c r="M19">
-        <v>1.021606519846423</v>
+        <v>1.04908595614121</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9838434582229182</v>
+        <v>1.027420959084891</v>
       </c>
       <c r="D20">
-        <v>1.005794549109069</v>
+        <v>1.030673488981685</v>
       </c>
       <c r="E20">
-        <v>1.001079618581183</v>
+        <v>1.036670072694338</v>
       </c>
       <c r="F20">
-        <v>1.0064401588729</v>
+        <v>1.045482283320484</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03887226141764</v>
+        <v>1.032048898243118</v>
       </c>
       <c r="J20">
-        <v>1.012011714925098</v>
+        <v>1.033675391023605</v>
       </c>
       <c r="K20">
-        <v>1.019736267897329</v>
+        <v>1.0340657435898</v>
       </c>
       <c r="L20">
-        <v>1.015103510725409</v>
+        <v>1.040041273968201</v>
       </c>
       <c r="M20">
-        <v>1.020370703292447</v>
+        <v>1.048823028085343</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9783004460656546</v>
+        <v>1.026356353761758</v>
       </c>
       <c r="D21">
-        <v>1.00200828636885</v>
+        <v>1.029923089609702</v>
       </c>
       <c r="E21">
-        <v>0.9964903400627076</v>
+        <v>1.035719700113535</v>
       </c>
       <c r="F21">
-        <v>1.001326056300436</v>
+        <v>1.044419658122051</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037626184519557</v>
+        <v>1.03188361221704</v>
       </c>
       <c r="J21">
-        <v>1.008734291805316</v>
+        <v>1.033012351107518</v>
       </c>
       <c r="K21">
-        <v>1.016951710777425</v>
+        <v>1.03352599136664</v>
       </c>
       <c r="L21">
-        <v>1.011538510495878</v>
+        <v>1.039300881715419</v>
       </c>
       <c r="M21">
-        <v>1.016282349613995</v>
+        <v>1.047968740884796</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9747346851300489</v>
+        <v>1.025687616719573</v>
       </c>
       <c r="D22">
-        <v>0.9995777713956997</v>
+        <v>1.029451588178378</v>
       </c>
       <c r="E22">
-        <v>0.9935468024013154</v>
+        <v>1.035123134044033</v>
       </c>
       <c r="F22">
-        <v>0.9980450312940722</v>
+        <v>1.043752616134901</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036814875528523</v>
+        <v>1.031778411566573</v>
       </c>
       <c r="J22">
-        <v>1.006625293407873</v>
+        <v>1.032595450555473</v>
       </c>
       <c r="K22">
-        <v>1.015157597360171</v>
+        <v>1.033186194001796</v>
       </c>
       <c r="L22">
-        <v>1.009247191595063</v>
+        <v>1.038835644975304</v>
       </c>
       <c r="M22">
-        <v>1.01365531623344</v>
+        <v>1.047432019637011</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9766328621800091</v>
+        <v>1.026042067532747</v>
       </c>
       <c r="D23">
-        <v>1.000871102159721</v>
+        <v>1.029701510652981</v>
       </c>
       <c r="E23">
-        <v>0.9951129062311015</v>
+        <v>1.035439292502214</v>
       </c>
       <c r="F23">
-        <v>0.9997907802824141</v>
+        <v>1.044106125555524</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037247659567494</v>
+        <v>1.031834301453783</v>
       </c>
       <c r="J23">
-        <v>1.007748030937541</v>
+        <v>1.032816459082273</v>
       </c>
       <c r="K23">
-        <v>1.016112910188858</v>
+        <v>1.033366367775896</v>
       </c>
       <c r="L23">
-        <v>1.010466730683093</v>
+        <v>1.039082249117333</v>
       </c>
       <c r="M23">
-        <v>1.015053475371446</v>
+        <v>1.04771650710371</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.98393507562539</v>
+        <v>1.027438817815514</v>
       </c>
       <c r="D24">
-        <v>1.005857208970262</v>
+        <v>1.030686074577367</v>
       </c>
       <c r="E24">
-        <v>1.001155611645323</v>
+        <v>1.036686022170941</v>
       </c>
       <c r="F24">
-        <v>1.006524828775579</v>
+        <v>1.045500116450171</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038892691599927</v>
+        <v>1.03205164756772</v>
       </c>
       <c r="J24">
-        <v>1.012065870799231</v>
+        <v>1.033686506544485</v>
       </c>
       <c r="K24">
-        <v>1.019782240334096</v>
+        <v>1.034074785177714</v>
       </c>
       <c r="L24">
-        <v>1.015162463794963</v>
+        <v>1.040053691359693</v>
       </c>
       <c r="M24">
-        <v>1.020438321874498</v>
+        <v>1.048837357063038</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9920818755927564</v>
+        <v>1.02906234632689</v>
       </c>
       <c r="D25">
-        <v>1.011438674235068</v>
+        <v>1.031829881640143</v>
       </c>
       <c r="E25">
-        <v>1.007931473337793</v>
+        <v>1.038136962517277</v>
       </c>
       <c r="F25">
-        <v>1.014072619200908</v>
+        <v>1.047122387426001</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04068549448613</v>
+        <v>1.032298279348333</v>
       </c>
       <c r="J25">
-        <v>1.016878686489646</v>
+        <v>1.034696022549613</v>
       </c>
       <c r="K25">
-        <v>1.023861977224586</v>
+        <v>1.034894940373036</v>
       </c>
       <c r="L25">
-        <v>1.020407898599708</v>
+        <v>1.041182165458554</v>
       </c>
       <c r="M25">
-        <v>1.026456334257005</v>
+        <v>1.050139753700381</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_187/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_187/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030359391618642</v>
+        <v>0.998340147614598</v>
       </c>
       <c r="D2">
-        <v>1.032743152920536</v>
+        <v>1.015738281634586</v>
       </c>
       <c r="E2">
-        <v>1.039297547903983</v>
+        <v>1.01316184036946</v>
       </c>
       <c r="F2">
-        <v>1.048419981340831</v>
+        <v>1.019896575401677</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032490467137752</v>
+        <v>1.042026853055791</v>
       </c>
       <c r="J2">
-        <v>1.035501071422004</v>
+        <v>1.020570618177278</v>
       </c>
       <c r="K2">
-        <v>1.035547504045563</v>
+        <v>1.02698262647332</v>
       </c>
       <c r="L2">
-        <v>1.04208313535606</v>
+        <v>1.024440805354156</v>
       </c>
       <c r="M2">
-        <v>1.05117987703966</v>
+        <v>1.031085507470802</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031302376646201</v>
+        <v>1.002756126879678</v>
       </c>
       <c r="D3">
-        <v>1.033406807290033</v>
+        <v>1.018777769535883</v>
       </c>
       <c r="E3">
-        <v>1.040142136546105</v>
+        <v>1.016866122588025</v>
       </c>
       <c r="F3">
-        <v>1.049364256358673</v>
+        <v>1.024020109069691</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032627378061937</v>
+        <v>1.042951727324485</v>
       </c>
       <c r="J3">
-        <v>1.03608551039711</v>
+        <v>1.023171938047899</v>
       </c>
       <c r="K3">
-        <v>1.036020382397979</v>
+        <v>1.029175893269661</v>
       </c>
       <c r="L3">
-        <v>1.042737823025312</v>
+        <v>1.027287652315195</v>
       </c>
       <c r="M3">
-        <v>1.051935851555375</v>
+        <v>1.034354602934972</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031913107913507</v>
+        <v>1.005557603569756</v>
       </c>
       <c r="D4">
-        <v>1.033836476435535</v>
+        <v>1.020708172628889</v>
       </c>
       <c r="E4">
-        <v>1.04068951334721</v>
+        <v>1.019222104570891</v>
       </c>
       <c r="F4">
-        <v>1.049976232178579</v>
+        <v>1.026642265606885</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032714746184533</v>
+        <v>1.043528175447175</v>
       </c>
       <c r="J4">
-        <v>1.036463630344673</v>
+        <v>1.024820205821241</v>
       </c>
       <c r="K4">
-        <v>1.036325924803669</v>
+        <v>1.030562931021252</v>
       </c>
       <c r="L4">
-        <v>1.043161676308438</v>
+        <v>1.029093941711331</v>
       </c>
       <c r="M4">
-        <v>1.052425358751945</v>
+        <v>1.036429433587619</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03216999158909</v>
+        <v>1.006722410979527</v>
       </c>
       <c r="D5">
-        <v>1.03401716539184</v>
+        <v>1.021511261972931</v>
       </c>
       <c r="E5">
-        <v>1.040919837749432</v>
+        <v>1.020203080894768</v>
       </c>
       <c r="F5">
-        <v>1.050233736777928</v>
+        <v>1.0277339643282</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03275118253241</v>
+        <v>1.043765343072531</v>
       </c>
       <c r="J5">
-        <v>1.036622578676288</v>
+        <v>1.025505013918444</v>
       </c>
       <c r="K5">
-        <v>1.036454268057021</v>
+        <v>1.03113854596926</v>
       </c>
       <c r="L5">
-        <v>1.043339917317602</v>
+        <v>1.029844992348278</v>
       </c>
       <c r="M5">
-        <v>1.052631227955123</v>
+        <v>1.0372922955687</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032213131212758</v>
+        <v>1.006917241895371</v>
       </c>
       <c r="D6">
-        <v>1.03404750710561</v>
+        <v>1.021645615625341</v>
       </c>
       <c r="E6">
-        <v>1.040958522338286</v>
+        <v>1.020367244395881</v>
       </c>
       <c r="F6">
-        <v>1.050276986375632</v>
+        <v>1.027916650855914</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032757283145095</v>
+        <v>1.043804864064286</v>
       </c>
       <c r="J6">
-        <v>1.036649265990513</v>
+        <v>1.025619526768466</v>
       </c>
       <c r="K6">
-        <v>1.03647581116144</v>
+        <v>1.031234760385637</v>
       </c>
       <c r="L6">
-        <v>1.043369847846927</v>
+        <v>1.029970616881668</v>
       </c>
       <c r="M6">
-        <v>1.052665798976111</v>
+        <v>1.037436631245198</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031916539887431</v>
+        <v>1.005573218005524</v>
       </c>
       <c r="D7">
-        <v>1.033838890591875</v>
+        <v>1.02071893643566</v>
       </c>
       <c r="E7">
-        <v>1.040692590140813</v>
+        <v>1.019235249252503</v>
       </c>
       <c r="F7">
-        <v>1.049979672065882</v>
+        <v>1.026656894333837</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03271523420162</v>
+        <v>1.04353136468564</v>
       </c>
       <c r="J7">
-        <v>1.036465754273612</v>
+        <v>1.024829387863323</v>
       </c>
       <c r="K7">
-        <v>1.036327640153402</v>
+        <v>1.03057065160865</v>
       </c>
       <c r="L7">
-        <v>1.043164057766372</v>
+        <v>1.029104009616929</v>
       </c>
       <c r="M7">
-        <v>1.052428109272102</v>
+        <v>1.036440999730467</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03067796186836</v>
+        <v>0.9998444206589402</v>
       </c>
       <c r="D8">
-        <v>1.03296738734446</v>
+        <v>1.016773171191636</v>
       </c>
       <c r="E8">
-        <v>1.039582799281087</v>
+        <v>1.014422394463858</v>
       </c>
       <c r="F8">
-        <v>1.04873890244646</v>
+        <v>1.021299903608811</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03253698959124</v>
+        <v>1.042344035651734</v>
       </c>
       <c r="J8">
-        <v>1.035698595269883</v>
+        <v>1.021457136904772</v>
       </c>
       <c r="K8">
-        <v>1.035707406269241</v>
+        <v>1.027730633146939</v>
       </c>
       <c r="L8">
-        <v>1.042304342508497</v>
+        <v>1.025410485825362</v>
       </c>
       <c r="M8">
-        <v>1.05143529075626</v>
+        <v>1.032198881255315</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028499741721878</v>
+        <v>0.9892990088950847</v>
       </c>
       <c r="D9">
-        <v>1.031433594701899</v>
+        <v>1.009530016010763</v>
       </c>
       <c r="E9">
-        <v>1.037633943946112</v>
+        <v>1.005612783053079</v>
       </c>
       <c r="F9">
-        <v>1.046559977135118</v>
+        <v>1.011490157622238</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032213562699357</v>
+        <v>1.040078625542981</v>
       </c>
       <c r="J9">
-        <v>1.034346417672459</v>
+        <v>1.015235389443031</v>
       </c>
       <c r="K9">
-        <v>1.034611140992192</v>
+        <v>1.022470344699652</v>
       </c>
       <c r="L9">
-        <v>1.040791200785214</v>
+        <v>1.018615448440257</v>
       </c>
       <c r="M9">
-        <v>1.049688487388761</v>
+        <v>1.02439952567798</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027050557283306</v>
+        <v>0.9819331795223012</v>
       </c>
       <c r="D10">
-        <v>1.030412437789532</v>
+        <v>1.004488627579969</v>
       </c>
       <c r="E10">
-        <v>1.036339322357501</v>
+        <v>0.9994961532999118</v>
       </c>
       <c r="F10">
-        <v>1.045112469425325</v>
+        <v>1.004675794259428</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031991700558728</v>
+        <v>1.038445019827428</v>
       </c>
       <c r="J10">
-        <v>1.033444795627058</v>
+        <v>1.010882409050869</v>
       </c>
       <c r="K10">
-        <v>1.03387811957759</v>
+        <v>1.01877730866105</v>
       </c>
       <c r="L10">
-        <v>1.039783709011029</v>
+        <v>1.013874510817373</v>
       </c>
       <c r="M10">
-        <v>1.04852582306459</v>
+        <v>1.018961135894529</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026423759925416</v>
+        <v>0.9786562210801376</v>
       </c>
       <c r="D11">
-        <v>1.029970609555492</v>
+        <v>1.002251017473367</v>
       </c>
       <c r="E11">
-        <v>1.035779849378668</v>
+        <v>0.9967844044272793</v>
       </c>
       <c r="F11">
-        <v>1.044486912616342</v>
+        <v>1.001653798569023</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031894157753258</v>
+        <v>1.037706731921603</v>
       </c>
       <c r="J11">
-        <v>1.033054355811293</v>
+        <v>1.008944695518655</v>
       </c>
       <c r="K11">
-        <v>1.033560209932741</v>
+        <v>1.017130607390134</v>
       </c>
       <c r="L11">
-        <v>1.039347769260921</v>
+        <v>1.01176721802265</v>
       </c>
       <c r="M11">
-        <v>1.048022836310044</v>
+        <v>1.016544593918474</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026191046999591</v>
+        <v>0.9774251417943182</v>
       </c>
       <c r="D12">
-        <v>1.029806547368405</v>
+        <v>1.001411273666777</v>
       </c>
       <c r="E12">
-        <v>1.035572203891665</v>
+        <v>0.9957671487855753</v>
       </c>
       <c r="F12">
-        <v>1.044254738237868</v>
+        <v>1.00052001214902</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031857704943848</v>
+        <v>1.037427699570488</v>
       </c>
       <c r="J12">
-        <v>1.032909325355927</v>
+        <v>1.008216621169664</v>
       </c>
       <c r="K12">
-        <v>1.033442049081932</v>
+        <v>1.016511485754899</v>
       </c>
       <c r="L12">
-        <v>1.039185889651985</v>
+        <v>1.010975895347072</v>
       </c>
       <c r="M12">
-        <v>1.047836074184537</v>
+        <v>1.015637256323482</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026240959830612</v>
+        <v>0.9776898523511433</v>
       </c>
       <c r="D13">
-        <v>1.029841736865153</v>
+        <v>1.001591796986554</v>
       </c>
       <c r="E13">
-        <v>1.035616736942511</v>
+        <v>0.9959858140094063</v>
       </c>
       <c r="F13">
-        <v>1.044304532022972</v>
+        <v>1.000763733243527</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031865534190353</v>
+        <v>1.037487772708944</v>
       </c>
       <c r="J13">
-        <v>1.032940435033152</v>
+        <v>1.008373178558509</v>
       </c>
       <c r="K13">
-        <v>1.033467398365061</v>
+        <v>1.01664463244329</v>
       </c>
       <c r="L13">
-        <v>1.039220611195386</v>
+        <v>1.011146031770738</v>
       </c>
       <c r="M13">
-        <v>1.047876132126932</v>
+        <v>1.015832331157144</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02640452160322</v>
+        <v>0.9785547470107865</v>
       </c>
       <c r="D14">
-        <v>1.02995704704449</v>
+        <v>1.002181781649749</v>
       </c>
       <c r="E14">
-        <v>1.035762681908959</v>
+        <v>0.996700524555986</v>
       </c>
       <c r="F14">
-        <v>1.044467717221912</v>
+        <v>1.001560312995506</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031891149059266</v>
+        <v>1.037683765847095</v>
       </c>
       <c r="J14">
-        <v>1.03304236761871</v>
+        <v>1.008884684715945</v>
       </c>
       <c r="K14">
-        <v>1.033550444244969</v>
+        <v>1.017079584739522</v>
       </c>
       <c r="L14">
-        <v>1.039334387259834</v>
+        <v>1.011701984496916</v>
       </c>
       <c r="M14">
-        <v>1.048007397068404</v>
+        <v>1.016469794284408</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026505311686885</v>
+        <v>0.9790857766078322</v>
       </c>
       <c r="D15">
-        <v>1.030028100451952</v>
+        <v>1.002544139733179</v>
       </c>
       <c r="E15">
-        <v>1.035852625682242</v>
+        <v>0.9971395420069515</v>
       </c>
       <c r="F15">
-        <v>1.044568285602512</v>
+        <v>1.002049599458585</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03190690194784</v>
+        <v>1.037803882975697</v>
       </c>
       <c r="J15">
-        <v>1.033105171185774</v>
+        <v>1.009198726037256</v>
       </c>
       <c r="K15">
-        <v>1.033601601638418</v>
+        <v>1.017346574503888</v>
       </c>
       <c r="L15">
-        <v>1.039404494819095</v>
+        <v>1.012043375876487</v>
       </c>
       <c r="M15">
-        <v>1.048088282984884</v>
+        <v>1.016861253286574</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027092170783403</v>
+        <v>0.9821487561156155</v>
       </c>
       <c r="D16">
-        <v>1.030441767753578</v>
+        <v>1.004635946608589</v>
       </c>
       <c r="E16">
-        <v>1.036376476174609</v>
+        <v>0.9996747498886763</v>
       </c>
       <c r="F16">
-        <v>1.045154011473182</v>
+        <v>1.004874803814618</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031998143122166</v>
+        <v>1.038493353155484</v>
       </c>
       <c r="J16">
-        <v>1.033470707254016</v>
+        <v>1.011009863313523</v>
       </c>
       <c r="K16">
-        <v>1.033899207610997</v>
+        <v>1.018885565813571</v>
       </c>
       <c r="L16">
-        <v>1.039812647541466</v>
+        <v>1.014013184289972</v>
       </c>
       <c r="M16">
-        <v>1.048559214323436</v>
+        <v>1.019120175721219</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027460482525935</v>
+        <v>0.9840461584837584</v>
       </c>
       <c r="D17">
-        <v>1.030701342257482</v>
+        <v>1.005933185187497</v>
       </c>
       <c r="E17">
-        <v>1.036705371046843</v>
+        <v>1.001247756662712</v>
       </c>
       <c r="F17">
-        <v>1.045521750443442</v>
+        <v>1.006627494262187</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032054981771676</v>
+        <v>1.038917454936595</v>
       </c>
       <c r="J17">
-        <v>1.033699990647539</v>
+        <v>1.012131532111407</v>
       </c>
       <c r="K17">
-        <v>1.034085753100488</v>
+        <v>1.019837977823384</v>
       </c>
       <c r="L17">
-        <v>1.040068754974444</v>
+        <v>1.015233943498414</v>
       </c>
       <c r="M17">
-        <v>1.04885473969818</v>
+        <v>1.020520308876522</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027675380881922</v>
+        <v>0.9851444896139164</v>
       </c>
       <c r="D18">
-        <v>1.030852780325689</v>
+        <v>1.006684596254685</v>
       </c>
       <c r="E18">
-        <v>1.036897316547985</v>
+        <v>1.002159201346723</v>
       </c>
       <c r="F18">
-        <v>1.045736364324057</v>
+        <v>1.007642966611753</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032087992438651</v>
+        <v>1.039161853301986</v>
       </c>
       <c r="J18">
-        <v>1.033833724662619</v>
+        <v>1.012780710939987</v>
       </c>
       <c r="K18">
-        <v>1.034194512984862</v>
+        <v>1.020388933888422</v>
       </c>
       <c r="L18">
-        <v>1.040218168022834</v>
+        <v>1.015940767957834</v>
       </c>
       <c r="M18">
-        <v>1.049027158424445</v>
+        <v>1.021331063859003</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027748667230739</v>
+        <v>0.9855175899812053</v>
       </c>
       <c r="D19">
-        <v>1.03090442228628</v>
+        <v>1.00693992942812</v>
       </c>
       <c r="E19">
-        <v>1.036962783056365</v>
+        <v>1.002468966461345</v>
       </c>
       <c r="F19">
-        <v>1.045809562075544</v>
+        <v>1.007988072451752</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032099224060653</v>
+        <v>1.039244687034571</v>
       </c>
       <c r="J19">
-        <v>1.033879323947618</v>
+        <v>1.01300121510156</v>
       </c>
       <c r="K19">
-        <v>1.03423158896129</v>
+        <v>1.020576029738204</v>
       </c>
       <c r="L19">
-        <v>1.040269119051178</v>
+        <v>1.016180902576097</v>
       </c>
       <c r="M19">
-        <v>1.04908595614121</v>
+        <v>1.021606519846423</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027420959084891</v>
+        <v>0.983843458222918</v>
       </c>
       <c r="D20">
-        <v>1.030673488981685</v>
+        <v>1.005794549109068</v>
       </c>
       <c r="E20">
-        <v>1.036670072694338</v>
+        <v>1.001079618581182</v>
       </c>
       <c r="F20">
-        <v>1.045482283320484</v>
+        <v>1.0064401588729</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032048898243118</v>
+        <v>1.03887226141764</v>
       </c>
       <c r="J20">
-        <v>1.033675391023605</v>
+        <v>1.012011714925097</v>
       </c>
       <c r="K20">
-        <v>1.0340657435898</v>
+        <v>1.019736267897328</v>
       </c>
       <c r="L20">
-        <v>1.040041273968201</v>
+        <v>1.015103510725408</v>
       </c>
       <c r="M20">
-        <v>1.048823028085343</v>
+        <v>1.020370703292447</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026356353761758</v>
+        <v>0.9783004460656545</v>
       </c>
       <c r="D21">
-        <v>1.029923089609702</v>
+        <v>1.00200828636885</v>
       </c>
       <c r="E21">
-        <v>1.035719700113535</v>
+        <v>0.9964903400627076</v>
       </c>
       <c r="F21">
-        <v>1.044419658122051</v>
+        <v>1.001326056300435</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03188361221704</v>
+        <v>1.037626184519556</v>
       </c>
       <c r="J21">
-        <v>1.033012351107518</v>
+        <v>1.008734291805316</v>
       </c>
       <c r="K21">
-        <v>1.03352599136664</v>
+        <v>1.016951710777425</v>
       </c>
       <c r="L21">
-        <v>1.039300881715419</v>
+        <v>1.011538510495878</v>
       </c>
       <c r="M21">
-        <v>1.047968740884796</v>
+        <v>1.016282349613995</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025687616719573</v>
+        <v>0.9747346851300478</v>
       </c>
       <c r="D22">
-        <v>1.029451588178378</v>
+        <v>0.9995777713956987</v>
       </c>
       <c r="E22">
-        <v>1.035123134044033</v>
+        <v>0.9935468024013147</v>
       </c>
       <c r="F22">
-        <v>1.043752616134901</v>
+        <v>0.9980450312940713</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031778411566573</v>
+        <v>1.036814875528522</v>
       </c>
       <c r="J22">
-        <v>1.032595450555473</v>
+        <v>1.006625293407872</v>
       </c>
       <c r="K22">
-        <v>1.033186194001796</v>
+        <v>1.01515759736017</v>
       </c>
       <c r="L22">
-        <v>1.038835644975304</v>
+        <v>1.009247191595062</v>
       </c>
       <c r="M22">
-        <v>1.047432019637011</v>
+        <v>1.013655316233439</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026042067532747</v>
+        <v>0.9766328621800096</v>
       </c>
       <c r="D23">
-        <v>1.029701510652981</v>
+        <v>1.000871102159722</v>
       </c>
       <c r="E23">
-        <v>1.035439292502214</v>
+        <v>0.9951129062311018</v>
       </c>
       <c r="F23">
-        <v>1.044106125555524</v>
+        <v>0.9997907802824143</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031834301453783</v>
+        <v>1.037247659567495</v>
       </c>
       <c r="J23">
-        <v>1.032816459082273</v>
+        <v>1.007748030937541</v>
       </c>
       <c r="K23">
-        <v>1.033366367775896</v>
+        <v>1.016112910188858</v>
       </c>
       <c r="L23">
-        <v>1.039082249117333</v>
+        <v>1.010466730683093</v>
       </c>
       <c r="M23">
-        <v>1.04771650710371</v>
+        <v>1.015053475371447</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027438817815514</v>
+        <v>0.9839350756253895</v>
       </c>
       <c r="D24">
-        <v>1.030686074577367</v>
+        <v>1.005857208970262</v>
       </c>
       <c r="E24">
-        <v>1.036686022170941</v>
+        <v>1.001155611645323</v>
       </c>
       <c r="F24">
-        <v>1.045500116450171</v>
+        <v>1.006524828775578</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03205164756772</v>
+        <v>1.038892691599927</v>
       </c>
       <c r="J24">
-        <v>1.033686506544485</v>
+        <v>1.012065870799231</v>
       </c>
       <c r="K24">
-        <v>1.034074785177714</v>
+        <v>1.019782240334096</v>
       </c>
       <c r="L24">
-        <v>1.040053691359693</v>
+        <v>1.015162463794962</v>
       </c>
       <c r="M24">
-        <v>1.048837357063038</v>
+        <v>1.020438321874497</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02906234632689</v>
+        <v>0.9920818755927557</v>
       </c>
       <c r="D25">
-        <v>1.031829881640143</v>
+        <v>1.011438674235067</v>
       </c>
       <c r="E25">
-        <v>1.038136962517277</v>
+        <v>1.007931473337792</v>
       </c>
       <c r="F25">
-        <v>1.047122387426001</v>
+        <v>1.014072619200908</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032298279348333</v>
+        <v>1.04068549448613</v>
       </c>
       <c r="J25">
-        <v>1.034696022549613</v>
+        <v>1.016878686489645</v>
       </c>
       <c r="K25">
-        <v>1.034894940373036</v>
+        <v>1.023861977224585</v>
       </c>
       <c r="L25">
-        <v>1.041182165458554</v>
+        <v>1.020407898599707</v>
       </c>
       <c r="M25">
-        <v>1.050139753700381</v>
+        <v>1.026456334257005</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
